--- a/va_facility_data_2025-02-20/Jonesboro VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Jonesboro%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Jonesboro VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Jonesboro%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rf8016edb21b4413ab65eca213de7d389"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rea13e38db48743b6bc5ab3175fd46777"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R9674479896a1498ba6ecd13e37006353"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rac16f5c1b93c466fa959eb72b4e23a12"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Raf67fac262944a3baac9f159673890ed"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rc8b1e61e9cca4347a3c7b28171e39e17"/>
   </x:sheets>
 </x:workbook>
 </file>
